--- a/Template/TestScript/TS_Register.xlsx
+++ b/Template/TestScript/TS_Register.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,19 +52,23 @@
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DisplayedName
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +89,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -131,10 +142,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -151,9 +166,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -494,18 +513,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.75">
+    <row r="1" spans="1:6" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,13 +535,16 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5">
+      <c r="A2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>123</v>
@@ -532,10 +552,13 @@
       <c r="C2" s="2">
         <v>123</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Template/TestScript/TS_Register.xlsx
+++ b/Template/TestScript/TS_Register.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
@@ -64,19 +64,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test5@qq.com</t>
+    <t>test6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test6@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +171,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -293,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,14 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="3" customWidth="1"/>
@@ -483,7 +485,7 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1">
+    <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,17 +514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75">
+    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
